--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 2,37</t>
+          <t>-15,42; 2,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 0,75</t>
+          <t>-20,3; 1,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 7,05</t>
+          <t>-4,14; 6,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 18,68</t>
+          <t>-69,01; 25,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,6; 6,76</t>
+          <t>-68,01; 10,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 473,19</t>
+          <t>-65,39; 422,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -3,12</t>
+          <t>-10,74; -3,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,28</t>
+          <t>-7,7; 0,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,51</t>
+          <t>-4,02; 2,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,42; -20,9</t>
+          <t>-59,04; -21,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 9,29</t>
+          <t>-40,38; 4,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 36,52</t>
+          <t>-37,57; 35,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -1,65</t>
+          <t>-8,38; -1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,2</t>
+          <t>-6,42; 0,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,17</t>
+          <t>-3,89; 2,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,22; -11,42</t>
+          <t>-44,82; -11,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 1,73</t>
+          <t>-35,27; 1,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 19,04</t>
+          <t>-26,04; 19,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,42</t>
+          <t>-3,93; 3,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -0,14</t>
+          <t>-7,69; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,47</t>
+          <t>-1,07; 6,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 27,56</t>
+          <t>-23,43; 28,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,05; -0,92</t>
+          <t>-38,64; 1,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 48,31</t>
+          <t>-6,21; 48,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,79</t>
+          <t>-4,24; 1,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,8</t>
+          <t>-8,52; -2,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,45</t>
+          <t>-4,06; 2,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 13,66</t>
+          <t>-24,94; 13,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,97; -10,68</t>
+          <t>-42,17; -12,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 15,86</t>
+          <t>-22,6; 16,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,55</t>
+          <t>-5,09; -1,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,45</t>
+          <t>-5,77; -2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,7</t>
+          <t>-1,48; 1,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -10,57</t>
+          <t>-29,96; -10,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -14,31</t>
+          <t>-31,39; -13,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 13,52</t>
+          <t>-10,23; 14,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 2,56</t>
+          <t>-16,93; 2,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 1,22</t>
+          <t>-19,62; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,99</t>
+          <t>-3,89; 6,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 2,98</t>
+          <t>-13,69; 2,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 25,26</t>
+          <t>-69,92; 26,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,01; 10,7</t>
+          <t>-68,53; 11,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 422,33</t>
+          <t>-62,68; 546,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,32; 38,89</t>
+          <t>-71,97; 41,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,74; -3,15</t>
+          <t>-10,85; -3,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 0,67</t>
+          <t>-7,13; 0,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,47</t>
+          <t>-4,05; 2,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 0,47</t>
+          <t>-9,63; 0,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,04; -21,95</t>
+          <t>-58,5; -22,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 4,88</t>
+          <t>-38,82; 6,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 35,53</t>
+          <t>-38,32; 36,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 2,49</t>
+          <t>-35,62; 3,88</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -1,81</t>
+          <t>-8,2; -1,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,14</t>
+          <t>-6,23; 0,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,14</t>
+          <t>-4,11; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,76</t>
+          <t>-3,0; 4,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -11,57</t>
+          <t>-44,25; -10,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 1,8</t>
+          <t>-35,72; 1,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 19,35</t>
+          <t>-28,15; 15,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 29,33</t>
+          <t>-18,12; 37,44</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,53</t>
+          <t>-4,08; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,25</t>
+          <t>-8,08; -0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,66</t>
+          <t>-1,1; 6,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,96</t>
+          <t>-12,5; -2,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 28,23</t>
+          <t>-23,95; 27,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 1,47</t>
+          <t>-38,57; -0,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 48,74</t>
+          <t>-5,89; 48,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,18; -17,67</t>
+          <t>-60,37; -18,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,96</t>
+          <t>-3,99; 2,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -2,2</t>
+          <t>-9,08; -2,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,35</t>
+          <t>-4,06; 2,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -1,5</t>
+          <t>-7,92; -1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 13,98</t>
+          <t>-24,41; 15,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,17; -12,63</t>
+          <t>-43,39; -11,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 16,81</t>
+          <t>-22,69; 16,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,06; -11,73</t>
+          <t>-47,84; -13,19</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,54</t>
+          <t>-5,0; -1,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,23</t>
+          <t>-5,68; -2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,78</t>
+          <t>-1,63; 1,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -1,84</t>
+          <t>-5,83; -1,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -10,14</t>
+          <t>-30,11; -11,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,39; -13,29</t>
+          <t>-30,73; -14,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 14,32</t>
+          <t>-11,5; 13,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -11,51</t>
+          <t>-32,38; -11,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-37,73%</t>
+          <t>-42,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-39,25%</t>
+          <t>-23,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-21,71%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 2,46</t>
+          <t>-10,37; -3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 2,02</t>
+          <t>-8,42; -0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,46</t>
+          <t>-3,29; 2,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 2,98</t>
+          <t>-9,81; -0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 26,01</t>
+          <t>-56,11; -21,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 11,05</t>
+          <t>-41,07; -0,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 546,3</t>
+          <t>-35,13; 40,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,97; 41,19</t>
+          <t>-38,87; -3,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>29,1%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -3,34</t>
+          <t>-8,2; -1,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,89</t>
+          <t>-6,23; 0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,57</t>
+          <t>-4,11; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 0,85</t>
+          <t>-0,7; 9,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,5; -22,9</t>
+          <t>-44,25; -10,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 6,37</t>
+          <t>-35,72; 1,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 36,61</t>
+          <t>-28,15; 15,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 3,88</t>
+          <t>-4,82; 166,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-8,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,69%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-46,15%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -1,79</t>
+          <t>-4,08; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,18</t>
+          <t>-8,08; -0,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,85</t>
+          <t>-1,1; 6,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,48</t>
+          <t>-15,07; -4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,25; -10,66</t>
+          <t>-23,95; 27,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 1,21</t>
+          <t>-38,57; -0,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 15,94</t>
+          <t>-5,89; 48,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 37,44</t>
+          <t>-73,7; -25,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,0%</t>
+          <t>-28,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,86%</t>
+          <t>-33,4%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,55</t>
+          <t>-3,99; 2,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,14</t>
+          <t>-9,08; -2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,38</t>
+          <t>-4,06; 2,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -2,85</t>
+          <t>-8,23; -1,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 27,81</t>
+          <t>-24,41; 15,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -0,73</t>
+          <t>-43,39; -11,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 48,24</t>
+          <t>-22,69; 16,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,37; -18,05</t>
+          <t>-52,04; -14,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>-20,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-28,41%</t>
+          <t>-23,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-31,78%</t>
+          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,21</t>
+          <t>-5,0; -1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -2,1</t>
+          <t>-5,68; -2,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,42</t>
+          <t>-1,63; 1,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -1,73</t>
+          <t>-5,49; 0,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 15,39</t>
+          <t>-30,11; -11,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -11,98</t>
+          <t>-30,73; -14,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 16,63</t>
+          <t>-11,5; 13,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,84; -13,19</t>
+          <t>-33,73; 2,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,28</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,12</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,88%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-23,41%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-22,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; -1,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; -2,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 1,68</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; -1,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-30,11; -11,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-30,73; -14,6</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; 13,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-32,38; -11,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -3,18</t>
+          <t>-10,37; -3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -0,27</t>
+          <t>-8,04; -0,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,66</t>
+          <t>-3,2; 2,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,63</t>
+          <t>-9,23; 0,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,11; -21,83</t>
+          <t>-56,62; -23,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,07; -0,95</t>
+          <t>-41,58; -0,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 40,02</t>
+          <t>-33,73; 41,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -3,05</t>
+          <t>-37,07; 0,41</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -1,79</t>
+          <t>-8,11; -1,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,18</t>
+          <t>-6,29; 0,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,85</t>
+          <t>-3,63; 2,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,76</t>
+          <t>-0,84; 9,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; -10,66</t>
+          <t>-43,95; -10,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 1,21</t>
+          <t>-36,45; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 15,94</t>
+          <t>-25,16; 21,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 166,99</t>
+          <t>-6,47; 151,7</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,55</t>
+          <t>-4,03; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,14</t>
+          <t>-7,89; -0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,38</t>
+          <t>-1,28; 6,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -4,15</t>
+          <t>-16,37; -4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 27,81</t>
+          <t>-23,83; 31,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -0,73</t>
+          <t>-39,31; -0,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 48,24</t>
+          <t>-7,57; 47,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,7; -25,02</t>
+          <t>-74,4; -24,72</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,21</t>
+          <t>-4,43; 1,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -2,1</t>
+          <t>-8,66; -2,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,42</t>
+          <t>-3,94; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; -1,73</t>
+          <t>-8,08; -1,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 15,39</t>
+          <t>-26,51; 14,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,39; -11,98</t>
+          <t>-41,73; -12,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 16,63</t>
+          <t>-22,45; 18,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,04; -14,72</t>
+          <t>-51,38; -13,9</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -1,67</t>
+          <t>-5,02; -1,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -2,46</t>
+          <t>-6,01; -2,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,68</t>
+          <t>-1,57; 1,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,52</t>
+          <t>-5,87; 0,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -11,46</t>
+          <t>-30,3; -10,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -14,6</t>
+          <t>-32,46; -14,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 13,52</t>
+          <t>-10,92; 13,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 2,79</t>
+          <t>-34,56; 1,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
